--- a/GameModules/Localization_Global.xlsx
+++ b/GameModules/Localization_Global.xlsx
@@ -50480,7 +50480,7 @@
       </c>
       <c r="H1190" s="0" t="inlineStr">
         <is>
-          <t>Загрузка ресурсов</t>
+          <t>Uploading resources</t>
         </is>
       </c>
     </row>
